--- a/Упражнения простые/1.Basic PVT.xlsx
+++ b/Упражнения простые/1.Basic PVT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Упражнения простые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBC231-9C87-4D87-8806-AAF438234FF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01B9C02-89D7-4EEF-8421-A0F6426CAA6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,12 @@
     <definedName name="gamma_wat_">PVT!$C$8</definedName>
     <definedName name="muob_">PVT!$C$15</definedName>
     <definedName name="Pb_" localSheetId="1">PVT!$C$12</definedName>
+    <definedName name="PVT_str_">PVT!$B$27</definedName>
     <definedName name="Rp_" localSheetId="1">PVT!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="1">PVT!$C$10</definedName>
     <definedName name="Tres_" localSheetId="1">PVT!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="163">
   <si>
     <t>P</t>
   </si>
@@ -851,6 +852,15 @@
   <si>
     <t>°С</t>
   </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>PVT parameters in one string (PVTstring) example</t>
+  </si>
 </sst>
 </file>
 
@@ -1079,7 +1089,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,6 +1159,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1182,18 +1194,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16426</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>13587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1208,8 +1220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5116383" y="644958"/>
-          <a:ext cx="5323016" cy="2582656"/>
+          <a:off x="8150776" y="314325"/>
+          <a:ext cx="5007330" cy="3352799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1344,6 +1356,95 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>MF_Rhomix_kgm3</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PVT properties required by all (almost) functions in reservoir engineering calculation. Sometimes it is convinient to send one param to identify PVT props. Next functions do it</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>PVT_Encode_string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>PVT_Decode_string</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
@@ -1357,11 +1458,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="PVT_Bo_m3m3"/>
+      <definedName name="PVT_Decode_string"/>
+      <definedName name="PVT_Encode_string"/>
       <definedName name="PVT_Mug_cP"/>
       <definedName name="PVT_Muo_cP"/>
       <definedName name="PVT_Muw_cP"/>
@@ -57442,10 +57545,10 @@
   <sheetPr codeName="Лист4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -57462,22 +57565,25 @@
     <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="28">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>133</v>
       </c>
@@ -57493,7 +57599,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>135</v>
       </c>
@@ -57509,7 +57615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>134</v>
       </c>
@@ -57525,7 +57631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>136</v>
       </c>
@@ -57543,7 +57649,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>138</v>
       </c>
@@ -57561,7 +57667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>141</v>
       </c>
@@ -57579,7 +57685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>140</v>
       </c>
@@ -57597,7 +57703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>142</v>
       </c>
@@ -57610,7 +57716,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
         <v>143</v>
       </c>
@@ -57623,86 +57729,228 @@
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
+    </row>
+    <row r="19" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J21" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21">
+    <row r="22" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="21">
         <v>1</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C22" s="21">
         <v>80</v>
       </c>
-      <c r="D23" s="22">
-        <f>[1]!PVT_Rs_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D22" s="23">
+        <f>[1]!PVT_Rs_m3m3(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.27348943697138201</v>
       </c>
-      <c r="E23" s="23">
-        <f>[1]!PVT_Bo_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E22" s="23">
+        <f>[1]!PVT_Bo_m3m3(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0376527596788165</v>
       </c>
-      <c r="F23" s="22">
-        <f>[1]!PVT_Muo_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F22" s="22">
+        <f>[1]!PVT_Muo_cP(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4463445519065772</v>
       </c>
-      <c r="G23" s="24">
-        <f>[1]!PVT_Mug_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G22" s="24">
+        <f>[1]!PVT_Mug_cP(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2105546241270334E-2</v>
       </c>
-      <c r="H23" s="23">
-        <f>[1]!PVT_Muw_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H22" s="23">
+        <f>[1]!PVT_Muw_cP(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33586886209810729</v>
       </c>
-      <c r="I23" s="22">
-        <f>[1]!PVT_Rhog_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I22" s="22">
+        <f>[1]!PVT_Rhog_kgm3(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.80923453779557586</v>
       </c>
-      <c r="J23" s="22">
-        <f>[1]!PVT_Rhow_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J22" s="22">
+        <f>[1]!PVT_Rhow_kgm3(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.56653980677311</v>
       </c>
-      <c r="K23" s="22">
-        <f>[1]!PVT_Rhoo_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K22" s="22">
+        <f>[1]!PVT_Rhoo_kgm3(B22,C22,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>829.05123087842594</v>
       </c>
     </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="27" t="str">
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_gas_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,860;gamma_wat:0,800;rsb_m3m3:80,000;Rp_m3m3:80,000;Pb_atma:120,000;Tres_C:100,000;Bob_m3m3:1,200;Muob_cP:1,000;PVTcorr:0;Ksep_fr:0,000;PKsep_atma:-1,000;TKsep_C:-1,000;</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+    </row>
+    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="27" t="str">
+        <f>[1]!PVT_Decode_string(B27,1)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,860;gamma_wat:0,800;rsb_m3m3:80,000;Rp_m3m3:80,000;Pb_atma:120,000;Tres_C:100,000;Bob_m3m3:1,200;Muob_cP:1,000;PVTcorr:0;Ksep_fr:0,000;PKsep_atma:-1,000;TKsep_C:-1,000;</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+    </row>
+    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21">
+        <v>80</v>
+      </c>
+      <c r="D33" s="23">
+        <f>[1]!PVT_Rs_m3m3(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>0.27348943697138201</v>
+      </c>
+      <c r="E33" s="23">
+        <f>[1]!PVT_Bo_m3m3(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>1.0376527596788165</v>
+      </c>
+      <c r="F33" s="22">
+        <f>[1]!PVT_Muo_cP(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>3.4463445519065772</v>
+      </c>
+      <c r="G33" s="24">
+        <f>[1]!PVT_Mug_cP(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>1.2105546241270334E-2</v>
+      </c>
+      <c r="H33" s="23">
+        <f>[1]!PVT_Muw_cP(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>0.19082094514954473</v>
+      </c>
+      <c r="I33" s="22">
+        <f>[1]!PVT_Rhog_kgm3(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>0.80923453779557586</v>
+      </c>
+      <c r="J33" s="22">
+        <f>[1]!PVT_Rhow_kgm3(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>873.50988582609591</v>
+      </c>
+      <c r="K33" s="22">
+        <f>[1]!PVT_Rhoo_kgm3(B33,C33,,,,,,,,,,,,,,PVT_str_)</f>
+        <v>829.05123087842594</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Упражнения простые/1.Basic PVT.xlsx
+++ b/Упражнения простые/1.Basic PVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00650E0-16EB-4AE9-8284-81EF8F87CE0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6017C9-2D15-4777-ABE4-9556C61955F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="-10910" windowWidth="19420" windowHeight="10560" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -57543,7 +57543,7 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
